--- a/demo.xlsx
+++ b/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="23">
   <si>
     <t>Complejidad</t>
   </si>
@@ -55,25 +55,34 @@
     <t>Eventos</t>
   </si>
   <si>
+    <t>En contra</t>
+  </si>
+  <si>
     <t>A favor</t>
   </si>
   <si>
-    <t>En contra</t>
-  </si>
-  <si>
-    <t>Reten. Ponchado. LLanta cambiada</t>
+    <t xml:space="preserve">Reten. </t>
   </si>
   <si>
     <t xml:space="preserve">Gasolinera. Reten. </t>
   </si>
   <si>
-    <t xml:space="preserve">Reten. </t>
+    <t>Ponchado. LLanta cambiada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasolinera. Reten. Ponchado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reten. Ponchado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasolinera. Ponchado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponchado. </t>
   </si>
   <si>
     <t xml:space="preserve">Gasolinera. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reten. Ponchado. </t>
   </si>
 </sst>
 </file>
@@ -431,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,119 +489,116 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <v>43</v>
+      </c>
+      <c r="G2">
         <v>76</v>
       </c>
-      <c r="F2">
-        <v>84</v>
-      </c>
-      <c r="G2">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L2">
         <v>99</v>
       </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3">
         <v>98</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F4">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
       <c r="I4">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J4">
+        <v>87</v>
+      </c>
+      <c r="K4">
         <v>86</v>
-      </c>
-      <c r="K4">
-        <v>82</v>
       </c>
       <c r="L4">
         <v>97</v>
@@ -603,37 +609,37 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
       <c r="I5">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <v>86</v>
       </c>
       <c r="K5">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L5">
         <v>96</v>
@@ -644,154 +650,160 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>62</v>
+      </c>
+      <c r="F6">
+        <v>69</v>
+      </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>48</v>
+      </c>
+      <c r="J6">
+        <v>82</v>
+      </c>
+      <c r="K6">
         <v>79</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>87</v>
-      </c>
-      <c r="E6">
-        <v>33</v>
-      </c>
-      <c r="F6">
-        <v>67</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6">
-        <v>49</v>
-      </c>
-      <c r="J6">
-        <v>85</v>
-      </c>
-      <c r="K6">
-        <v>78</v>
       </c>
       <c r="L6">
         <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E7">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L7">
         <v>94</v>
       </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D8">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L8">
         <v>93</v>
       </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>75</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>94</v>
-      </c>
       <c r="F9">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
       <c r="I9">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J9">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="K9">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="L9">
         <v>92</v>
@@ -802,89 +814,89 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
       <c r="I10">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J10">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="K10">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="L10">
         <v>91</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E11">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F11">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11">
         <v>48</v>
       </c>
       <c r="J11">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="K11">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="L11">
         <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -893,192 +905,189 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G12">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
       <c r="I12">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J12">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="K12">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L12">
         <v>89</v>
       </c>
-      <c r="M12" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="G13">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
       </c>
       <c r="I13">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J13">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="K13">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="L13">
         <v>88</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>92</v>
+      </c>
+      <c r="G14">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>45</v>
+      </c>
+      <c r="J14">
         <v>86</v>
       </c>
-      <c r="E14">
-        <v>33</v>
-      </c>
-      <c r="F14">
-        <v>73</v>
-      </c>
-      <c r="G14">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14">
-        <v>47</v>
-      </c>
-      <c r="J14">
-        <v>52</v>
-      </c>
       <c r="K14">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="L14">
         <v>87</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
       <c r="I15">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J15">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K15">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L15">
         <v>86</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D16">
+        <v>73</v>
+      </c>
+      <c r="E16">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
         <v>38</v>
       </c>
-      <c r="E16">
-        <v>60</v>
-      </c>
-      <c r="F16">
-        <v>45</v>
-      </c>
-      <c r="G16">
-        <v>69</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16">
-        <v>36</v>
-      </c>
       <c r="J16">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="K16">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L16">
         <v>85</v>
@@ -1086,7 +1095,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1095,77 +1104,80 @@
         <v>100</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J17">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="K17">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="L17">
         <v>84</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D18">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F18">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G18">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J18">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="K18">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="L18">
         <v>83</v>
       </c>
+      <c r="M18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1174,236 +1186,233 @@
         <v>75</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>67</v>
+      </c>
+      <c r="G19">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>53</v>
+      </c>
+      <c r="J19">
+        <v>69</v>
+      </c>
+      <c r="K19">
         <v>40</v>
-      </c>
-      <c r="F19">
-        <v>78</v>
-      </c>
-      <c r="G19">
-        <v>48</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19">
-        <v>51</v>
-      </c>
-      <c r="J19">
-        <v>26</v>
-      </c>
-      <c r="K19">
-        <v>16</v>
       </c>
       <c r="L19">
         <v>82</v>
       </c>
       <c r="M19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E20">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>92</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <v>36</v>
+      </c>
+      <c r="J20">
+        <v>56</v>
+      </c>
+      <c r="K20">
         <v>32</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20">
-        <v>47</v>
-      </c>
-      <c r="J20">
-        <v>17</v>
-      </c>
-      <c r="K20">
-        <v>100</v>
       </c>
       <c r="L20">
         <v>81</v>
       </c>
-      <c r="M20" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>25</v>
       </c>
       <c r="D21">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F21">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
       <c r="I21">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J21">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="L21">
         <v>80</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="E22">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="G22">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J22">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="L22">
         <v>79</v>
       </c>
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>50</v>
       </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
+      <c r="D23">
+        <v>89</v>
+      </c>
+      <c r="E23">
         <v>25</v>
       </c>
-      <c r="D23">
-        <v>63</v>
-      </c>
-      <c r="E23">
-        <v>97</v>
-      </c>
       <c r="F23">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="G23">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="L23">
         <v>78</v>
       </c>
-      <c r="M23" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="F24">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G24">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
       </c>
       <c r="I24">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K24">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="L24">
         <v>77</v>
       </c>
       <c r="M24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1414,192 +1423,195 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F25">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G25">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
       </c>
       <c r="I25">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J25">
-        <v>-2</v>
+        <v>29</v>
       </c>
       <c r="K25">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="L25">
         <v>76</v>
       </c>
       <c r="M25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D26">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F26">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="G26">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J26">
-        <v>-5</v>
+        <v>28</v>
       </c>
       <c r="K26">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="L26">
         <v>75</v>
       </c>
       <c r="M26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
       <c r="D27">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G27">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
       </c>
       <c r="I27">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J27">
-        <v>-14</v>
+        <v>26</v>
       </c>
       <c r="K27">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="L27">
         <v>74</v>
       </c>
+      <c r="M27" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D28">
+        <v>83</v>
+      </c>
+      <c r="E28">
+        <v>71</v>
+      </c>
+      <c r="F28">
         <v>80</v>
       </c>
-      <c r="E28">
-        <v>34</v>
-      </c>
-      <c r="F28">
-        <v>45</v>
-      </c>
       <c r="G28">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I28">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J28">
-        <v>-17</v>
+        <v>24</v>
       </c>
       <c r="K28">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="L28">
         <v>73</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>93</v>
+      </c>
+      <c r="E29">
+        <v>76</v>
+      </c>
+      <c r="F29">
         <v>25</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>47</v>
-      </c>
-      <c r="F29">
-        <v>48</v>
-      </c>
       <c r="G29">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J29">
-        <v>-24</v>
+        <v>18</v>
       </c>
       <c r="K29">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="L29">
         <v>72</v>
@@ -1607,86 +1619,86 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D30">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="G30">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I30">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J30">
-        <v>-24</v>
+        <v>18</v>
       </c>
       <c r="K30">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="L30">
         <v>71</v>
       </c>
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="F31">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G31">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
       </c>
       <c r="I31">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J31">
-        <v>-26</v>
+        <v>10</v>
       </c>
       <c r="K31">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="L31">
         <v>70</v>
       </c>
-      <c r="M31" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1695,28 +1707,28 @@
         <v>100</v>
       </c>
       <c r="D32">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F32">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G32">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I32">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J32">
-        <v>-27</v>
+        <v>6</v>
       </c>
       <c r="K32">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="L32">
         <v>69</v>
@@ -1727,78 +1739,78 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>62</v>
+      </c>
+      <c r="E33">
+        <v>85</v>
+      </c>
+      <c r="F33">
+        <v>38</v>
+      </c>
+      <c r="G33">
+        <v>84</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <v>47</v>
+      </c>
+      <c r="J33">
         <v>1</v>
       </c>
-      <c r="C33">
-        <v>25</v>
-      </c>
-      <c r="D33">
-        <v>85</v>
-      </c>
-      <c r="E33">
-        <v>27</v>
-      </c>
-      <c r="F33">
-        <v>34</v>
-      </c>
-      <c r="G33">
-        <v>32</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33">
-        <v>38</v>
-      </c>
-      <c r="J33">
-        <v>-29</v>
-      </c>
       <c r="K33">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="L33">
         <v>68</v>
       </c>
       <c r="M33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="F34">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J34">
-        <v>-30</v>
+        <v>-5</v>
       </c>
       <c r="K34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="L34">
         <v>67</v>
@@ -1806,201 +1818,195 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>75</v>
       </c>
       <c r="D35">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="E35">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F35">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="G35">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
       </c>
       <c r="I35">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J35">
-        <v>-31</v>
+        <v>-10</v>
       </c>
       <c r="K35">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L35">
         <v>66</v>
       </c>
       <c r="M35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D36">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G36">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
       </c>
       <c r="I36">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J36">
-        <v>-36</v>
+        <v>-14</v>
       </c>
       <c r="K36">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L36">
         <v>65</v>
       </c>
       <c r="M36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F37">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I37">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J37">
-        <v>-36</v>
+        <v>-17</v>
       </c>
       <c r="K37">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L37">
         <v>64</v>
       </c>
-      <c r="M37" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>100</v>
       </c>
       <c r="D38">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F38">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G38">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J38">
-        <v>-38</v>
+        <v>-18</v>
       </c>
       <c r="K38">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="L38">
         <v>63</v>
       </c>
-      <c r="M38" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D39">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="E39">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="G39">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
       </c>
       <c r="I39">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J39">
-        <v>-45</v>
+        <v>-18</v>
       </c>
       <c r="K39">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L39">
         <v>62</v>
@@ -2011,37 +2017,37 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
         <v>50</v>
       </c>
-      <c r="D40">
-        <v>10</v>
-      </c>
-      <c r="E40">
-        <v>92</v>
-      </c>
       <c r="F40">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G40">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
       </c>
       <c r="I40">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J40">
-        <v>-55</v>
+        <v>-24</v>
       </c>
       <c r="K40">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="L40">
         <v>61</v>
@@ -2055,39 +2061,42 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D41">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E41">
+        <v>52</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
         <v>54</v>
       </c>
-      <c r="F41">
-        <v>30</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I41">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J41">
-        <v>-59</v>
+        <v>-30</v>
       </c>
       <c r="K41">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="L41">
         <v>60</v>
       </c>
+      <c r="M41" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2096,28 +2105,28 @@
         <v>25</v>
       </c>
       <c r="D42">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
       <c r="F42">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="G42">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I42">
         <v>40</v>
       </c>
       <c r="J42">
-        <v>-59</v>
+        <v>-30</v>
       </c>
       <c r="K42">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="L42">
         <v>59</v>
@@ -2128,277 +2137,280 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D43">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="G43">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I43">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J43">
-        <v>-59</v>
+        <v>-30</v>
       </c>
       <c r="K43">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="L43">
         <v>58</v>
       </c>
-      <c r="M43" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>75</v>
+      </c>
+      <c r="D44">
+        <v>60</v>
+      </c>
+      <c r="E44">
+        <v>54</v>
+      </c>
+      <c r="F44">
+        <v>99</v>
+      </c>
+      <c r="G44">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>32</v>
+      </c>
+      <c r="J44">
+        <v>-32</v>
+      </c>
+      <c r="K44">
         <v>34</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>100</v>
-      </c>
-      <c r="D44">
-        <v>98</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-      <c r="F44">
-        <v>7</v>
-      </c>
-      <c r="G44">
-        <v>20</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44">
-        <v>35</v>
-      </c>
-      <c r="J44">
-        <v>-60</v>
-      </c>
-      <c r="K44">
-        <v>15</v>
       </c>
       <c r="L44">
         <v>57</v>
       </c>
+      <c r="M44" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D45">
+        <v>91</v>
+      </c>
+      <c r="E45">
+        <v>42</v>
+      </c>
+      <c r="F45">
+        <v>40</v>
+      </c>
+      <c r="G45">
+        <v>55</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45">
+        <v>35</v>
+      </c>
+      <c r="J45">
+        <v>-35</v>
+      </c>
+      <c r="K45">
         <v>31</v>
-      </c>
-      <c r="E45">
-        <v>88</v>
-      </c>
-      <c r="F45">
-        <v>39</v>
-      </c>
-      <c r="G45">
-        <v>65</v>
-      </c>
-      <c r="H45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45">
-        <v>31</v>
-      </c>
-      <c r="J45">
-        <v>-67</v>
-      </c>
-      <c r="K45">
-        <v>100</v>
       </c>
       <c r="L45">
         <v>56</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>100</v>
       </c>
       <c r="D46">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E46">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F46">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G46">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I46">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J46">
-        <v>-74</v>
+        <v>-41</v>
       </c>
       <c r="K46">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="L46">
         <v>55</v>
       </c>
       <c r="M46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D47">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E47">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F47">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G47">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
       </c>
       <c r="I47">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J47">
-        <v>-78</v>
+        <v>-42</v>
       </c>
       <c r="K47">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="L47">
         <v>54</v>
       </c>
+      <c r="M47" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>50</v>
       </c>
       <c r="D48">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E48">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F48">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="G48">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I48">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J48">
-        <v>-79</v>
+        <v>-51</v>
       </c>
       <c r="K48">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="L48">
         <v>53</v>
       </c>
       <c r="M48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F49">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G49">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
       </c>
       <c r="I49">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J49">
-        <v>-79</v>
+        <v>-54</v>
       </c>
       <c r="K49">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="L49">
         <v>52</v>
@@ -2409,127 +2421,130 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+      <c r="E50">
+        <v>84</v>
+      </c>
+      <c r="F50">
+        <v>68</v>
+      </c>
+      <c r="G50">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50">
+        <v>34</v>
+      </c>
+      <c r="J50">
+        <v>-62</v>
+      </c>
+      <c r="K50">
         <v>4</v>
-      </c>
-      <c r="C50">
-        <v>25</v>
-      </c>
-      <c r="D50">
-        <v>27</v>
-      </c>
-      <c r="E50">
-        <v>99</v>
-      </c>
-      <c r="F50">
-        <v>81</v>
-      </c>
-      <c r="G50">
-        <v>43</v>
-      </c>
-      <c r="H50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50">
-        <v>32</v>
-      </c>
-      <c r="J50">
-        <v>-88</v>
-      </c>
-      <c r="K50">
-        <v>74</v>
       </c>
       <c r="L50">
         <v>51</v>
       </c>
+      <c r="M50" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D51">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E51">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F51">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="G51">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
       </c>
       <c r="I51">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J51">
-        <v>-95</v>
+        <v>-64</v>
       </c>
       <c r="K51">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="L51">
         <v>50</v>
       </c>
       <c r="M51" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>100</v>
       </c>
       <c r="D52">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E52">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="G52">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I52">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J52">
-        <v>-106</v>
+        <v>-65</v>
       </c>
       <c r="K52">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="L52">
         <v>49</v>
       </c>
       <c r="M52" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -2538,520 +2553,508 @@
         <v>75</v>
       </c>
       <c r="D53">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E53">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F53">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="G53">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I53">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J53">
-        <v>-109</v>
+        <v>-71</v>
       </c>
       <c r="K53">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="L53">
         <v>48</v>
       </c>
       <c r="M53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D54">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E54">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G54">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I54">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J54">
-        <v>-125</v>
+        <v>-77</v>
       </c>
       <c r="K54">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="L54">
         <v>47</v>
       </c>
       <c r="M54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>50</v>
       </c>
       <c r="D55">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E55">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="F55">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G55">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
       </c>
       <c r="I55">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J55">
-        <v>-131</v>
+        <v>-84</v>
       </c>
       <c r="K55">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="L55">
         <v>46</v>
       </c>
-      <c r="M55" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="D56">
+        <v>88</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
         <v>1</v>
       </c>
-      <c r="C56">
-        <v>50</v>
-      </c>
-      <c r="D56">
-        <v>76</v>
-      </c>
-      <c r="E56">
-        <v>27</v>
-      </c>
-      <c r="F56">
-        <v>51</v>
-      </c>
-      <c r="G56">
-        <v>68</v>
-      </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I56">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J56">
-        <v>-133</v>
+        <v>-84</v>
       </c>
       <c r="K56">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="L56">
         <v>45</v>
       </c>
       <c r="M56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57">
+        <v>95</v>
+      </c>
+      <c r="B57">
         <v>4</v>
       </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
       <c r="C57">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D57">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E57">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G57">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I57">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J57">
-        <v>-137</v>
+        <v>-91</v>
       </c>
       <c r="K57">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="L57">
         <v>44</v>
       </c>
       <c r="M57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>75</v>
       </c>
       <c r="D58">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E58">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F58">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G58">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I58">
         <v>31</v>
       </c>
       <c r="J58">
-        <v>-140</v>
+        <v>-97</v>
       </c>
       <c r="K58">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="L58">
         <v>43</v>
       </c>
       <c r="M58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <v>25</v>
       </c>
       <c r="D59">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="G59">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I59">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J59">
-        <v>-154</v>
+        <v>-102</v>
       </c>
       <c r="K59">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="L59">
         <v>42</v>
       </c>
-      <c r="M59" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D60">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E60">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="G60">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
       </c>
       <c r="I60">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J60">
-        <v>-165</v>
+        <v>-104</v>
       </c>
       <c r="K60">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="L60">
         <v>41</v>
       </c>
       <c r="M60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D61">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E61">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="F61">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G61">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
       </c>
       <c r="I61">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J61">
-        <v>-166</v>
+        <v>-111</v>
       </c>
       <c r="K61">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L61">
         <v>40</v>
       </c>
       <c r="M61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E62">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F62">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G62">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I62">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J62">
-        <v>-179</v>
+        <v>-113</v>
       </c>
       <c r="K62">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L62">
         <v>39</v>
       </c>
       <c r="M62" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D63">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E63">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="F63">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63">
+        <v>36</v>
+      </c>
+      <c r="J63">
+        <v>-114</v>
+      </c>
+      <c r="K63">
         <v>33</v>
-      </c>
-      <c r="H63" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63">
-        <v>18</v>
-      </c>
-      <c r="J63">
-        <v>-180</v>
-      </c>
-      <c r="K63">
-        <v>99</v>
       </c>
       <c r="L63">
         <v>38</v>
       </c>
-      <c r="M63" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
+        <v>75</v>
+      </c>
+      <c r="D64">
+        <v>30</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
+      </c>
+      <c r="F64">
+        <v>79</v>
+      </c>
+      <c r="G64">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64">
         <v>25</v>
       </c>
-      <c r="D64">
-        <v>78</v>
-      </c>
-      <c r="E64">
-        <v>6</v>
-      </c>
-      <c r="F64">
-        <v>60</v>
-      </c>
-      <c r="G64">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64">
-        <v>20</v>
-      </c>
       <c r="J64">
-        <v>-180</v>
+        <v>-115</v>
       </c>
       <c r="K64">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="L64">
         <v>37</v>
       </c>
-      <c r="M64" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D65">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E65">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F65">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G65">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
       </c>
       <c r="I65">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J65">
-        <v>-190</v>
+        <v>-118</v>
       </c>
       <c r="K65">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="L65">
         <v>36</v>
@@ -3062,78 +3065,78 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D66">
+        <v>54</v>
+      </c>
+      <c r="E66">
+        <v>63</v>
+      </c>
+      <c r="F66">
+        <v>34</v>
+      </c>
+      <c r="G66">
         <v>42</v>
       </c>
-      <c r="E66">
-        <v>62</v>
-      </c>
-      <c r="F66">
-        <v>96</v>
-      </c>
-      <c r="G66">
-        <v>19</v>
-      </c>
       <c r="H66" t="s">
         <v>14</v>
       </c>
       <c r="I66">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J66">
-        <v>-194</v>
+        <v>-122</v>
       </c>
       <c r="K66">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="L66">
         <v>35</v>
       </c>
       <c r="M66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
       <c r="C67">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D67">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F67">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G67">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
       </c>
       <c r="I67">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J67">
-        <v>-199</v>
+        <v>-134</v>
       </c>
       <c r="K67">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="L67">
         <v>34</v>
@@ -3144,78 +3147,78 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F68">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G68">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I68">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J68">
-        <v>-203</v>
+        <v>-142</v>
       </c>
       <c r="K68">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="L68">
         <v>33</v>
       </c>
       <c r="M68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E69">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G69">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I69">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J69">
-        <v>-208</v>
+        <v>-149</v>
       </c>
       <c r="K69">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L69">
         <v>32</v>
@@ -3226,37 +3229,37 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C70">
         <v>75</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="E70">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F70">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G70">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
       </c>
       <c r="I70">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J70">
-        <v>-210</v>
+        <v>-154</v>
       </c>
       <c r="K70">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="L70">
         <v>31</v>
@@ -3267,78 +3270,78 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D71">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E71">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F71">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
       </c>
       <c r="I71">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J71">
-        <v>-212</v>
+        <v>-160</v>
       </c>
       <c r="K71">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="L71">
         <v>30</v>
       </c>
       <c r="M71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D72">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="G72">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
       </c>
       <c r="I72">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J72">
-        <v>-213</v>
+        <v>-164</v>
       </c>
       <c r="K72">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L72">
         <v>29</v>
@@ -3346,327 +3349,163 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D73">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E73">
         <v>46</v>
       </c>
       <c r="F73">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="G73">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I73">
         <v>16</v>
       </c>
       <c r="J73">
-        <v>-217</v>
+        <v>-169</v>
       </c>
       <c r="K73">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="L73">
         <v>28</v>
       </c>
-      <c r="M73" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74">
+        <v>95</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
         <v>75</v>
       </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="C74">
-        <v>25</v>
-      </c>
       <c r="D74">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E74">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F74">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G74">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I74">
         <v>19</v>
       </c>
       <c r="J74">
-        <v>-218</v>
+        <v>-174</v>
       </c>
       <c r="K74">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="L74">
         <v>27</v>
       </c>
       <c r="M74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D75">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F75">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G75">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I75">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J75">
-        <v>-225</v>
+        <v>-186</v>
       </c>
       <c r="K75">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L75">
         <v>26</v>
       </c>
       <c r="M75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>75</v>
       </c>
       <c r="D76">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E76">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G76">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
       </c>
       <c r="I76">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J76">
-        <v>-227</v>
+        <v>-187</v>
       </c>
       <c r="K76">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="L76">
         <v>25</v>
       </c>
       <c r="M76" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77">
-        <v>97</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77">
-        <v>50</v>
-      </c>
-      <c r="D77">
-        <v>90</v>
-      </c>
-      <c r="E77">
-        <v>39</v>
-      </c>
-      <c r="F77">
-        <v>92</v>
-      </c>
-      <c r="G77">
-        <v>31</v>
-      </c>
-      <c r="H77" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77">
-        <v>23</v>
-      </c>
-      <c r="J77">
-        <v>-228</v>
-      </c>
-      <c r="K77">
-        <v>46</v>
-      </c>
-      <c r="L77">
-        <v>24</v>
-      </c>
-      <c r="M77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78">
-        <v>88</v>
-      </c>
-      <c r="B78">
-        <v>4</v>
-      </c>
-      <c r="C78">
-        <v>100</v>
-      </c>
-      <c r="D78">
-        <v>41</v>
-      </c>
-      <c r="E78">
-        <v>85</v>
-      </c>
-      <c r="F78">
-        <v>35</v>
-      </c>
-      <c r="G78">
-        <v>6</v>
-      </c>
-      <c r="H78" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78">
-        <v>23</v>
-      </c>
-      <c r="J78">
-        <v>-235</v>
-      </c>
-      <c r="K78">
-        <v>39</v>
-      </c>
-      <c r="L78">
-        <v>23</v>
-      </c>
-      <c r="M78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79">
-        <v>24</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>75</v>
-      </c>
-      <c r="D79">
-        <v>75</v>
-      </c>
-      <c r="E79">
-        <v>31</v>
-      </c>
-      <c r="F79">
-        <v>58</v>
-      </c>
-      <c r="G79">
-        <v>45</v>
-      </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79">
-        <v>22</v>
-      </c>
-      <c r="J79">
-        <v>-236</v>
-      </c>
-      <c r="K79">
-        <v>36</v>
-      </c>
-      <c r="L79">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80">
-        <v>3</v>
-      </c>
-      <c r="B80">
-        <v>6</v>
-      </c>
-      <c r="C80">
-        <v>75</v>
-      </c>
-      <c r="D80">
-        <v>32</v>
-      </c>
-      <c r="E80">
-        <v>78</v>
-      </c>
-      <c r="F80">
-        <v>46</v>
-      </c>
-      <c r="G80">
-        <v>95</v>
-      </c>
-      <c r="H80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80">
-        <v>14</v>
-      </c>
-      <c r="J80">
-        <v>-243</v>
-      </c>
-      <c r="K80">
-        <v>29</v>
-      </c>
-      <c r="L80">
-        <v>21</v>
-      </c>
-      <c r="M80" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
